--- a/Results/last_two_thirds/last_two_thirds_apriori_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_apriori_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5598</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1010</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="4">
@@ -492,112 +492,112 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>772</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Kitchen &amp; Dining</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Storage &amp; Organization</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Kitchen &amp; Dining</t>
-        </is>
-      </c>
       <c r="C5" t="n">
-        <v>377</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Storage &amp; Organization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Kitchen &amp; Dining</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Storage &amp; Organization</t>
-        </is>
-      </c>
       <c r="C6" t="n">
-        <v>377</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Kitchen &amp; Dining</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Fashion &amp; Accessories</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Kitchen &amp; Dining</t>
-        </is>
-      </c>
       <c r="C7" t="n">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Fashion &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Kitchen &amp; Dining</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fashion &amp; Accessories</t>
-        </is>
-      </c>
       <c r="C8" t="n">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Storage &amp; Organization</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Kids &amp; Toys</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Storage &amp; Organization</t>
-        </is>
-      </c>
       <c r="C9" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Kids &amp; Toys</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Storage &amp; Organization</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Kids &amp; Toys</t>
-        </is>
-      </c>
       <c r="C10" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Fashion &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Storage &amp; Organization</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Fashion &amp; Accessories</t>
-        </is>
-      </c>
       <c r="C11" t="n">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Results/last_two_thirds/last_two_thirds_apriori_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_apriori_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6032</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1048</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>848</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>397</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>397</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>356</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>356</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Storage &amp; Organization</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Results/last_two_thirds/last_two_thirds_apriori_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_apriori_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7272</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1228</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4">
@@ -492,37 +492,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>918</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Fashion &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Kitchen &amp; Dining</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Storage &amp; Organization</t>
-        </is>
-      </c>
       <c r="C5" t="n">
-        <v>441</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Storage &amp; Organization</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>441</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Storage &amp; Organization</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>436</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>436</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>279</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>279</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Storage &amp; Organization</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>278</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Results/last_two_thirds/last_two_thirds_apriori_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_apriori_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5198</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>991</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="4">
@@ -492,37 +492,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>552</v>
+        <v>889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Storage &amp; Organization</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>236</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>223</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7">
@@ -533,71 +533,71 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Storage &amp; Organization</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>211</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Storage &amp; Organization</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>206</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Kids &amp; Toys</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Storage &amp; Organization</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Kitchen &amp; Dining</t>
-        </is>
-      </c>
       <c r="C9" t="n">
-        <v>200</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Storage &amp; Organization</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>197</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Textiles &amp; Cozy Items</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Fashion &amp; Accessories</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Storage &amp; Organization</t>
-        </is>
-      </c>
       <c r="C11" t="n">
-        <v>175</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
